--- a/data/miscellaneousMonitoring/MiscellaneousMonitoring.xlsx
+++ b/data/miscellaneousMonitoring/MiscellaneousMonitoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/miscellaneousMonitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5895E1C-7B30-2246-8CE7-988662359EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB43634-BF07-F749-B43D-7B6008DC39D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -2817,7 +2817,7 @@
   <autoFilter ref="A1:M631" xr:uid="{BD4D0F39-D701-2D42-B792-7D82D093E95F}">
     <filterColumn colId="3">
       <filters>
-        <filter val="betula"/>
+        <filter val="acer"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3159,9 +3159,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O162" sqref="O162"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="132" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M77" sqref="M77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3215,7 +3215,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3334,8 +3334,11 @@
       <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3354,8 +3357,11 @@
       <c r="J8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3374,8 +3380,11 @@
       <c r="J9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3394,8 +3403,11 @@
       <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3414,8 +3426,11 @@
       <c r="J11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3434,8 +3449,11 @@
       <c r="J12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3454,8 +3472,11 @@
       <c r="J13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3474,8 +3495,11 @@
       <c r="J14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3494,8 +3518,11 @@
       <c r="J15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3514,8 +3541,11 @@
       <c r="J16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -3535,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -3555,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -3575,7 +3605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -3595,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -3615,7 +3645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -3634,8 +3664,11 @@
       <c r="J22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -3654,8 +3687,11 @@
       <c r="J23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -3675,7 +3711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -3695,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -3714,8 +3750,11 @@
       <c r="J26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -3734,8 +3773,11 @@
       <c r="J27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -3754,8 +3796,11 @@
       <c r="J28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -3774,8 +3819,11 @@
       <c r="J29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -3794,8 +3842,11 @@
       <c r="J30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -3814,8 +3865,11 @@
       <c r="J31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -3835,7 +3889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3855,7 +3909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -3875,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -3895,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -3915,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -3935,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -3954,8 +4008,11 @@
       <c r="J38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -3974,8 +4031,11 @@
       <c r="J39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -3995,7 +4055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -4015,7 +4075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -4034,8 +4094,11 @@
       <c r="J42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -4054,8 +4117,11 @@
       <c r="J43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -4074,8 +4140,11 @@
       <c r="J44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -4094,8 +4163,11 @@
       <c r="J45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -4114,8 +4186,11 @@
       <c r="J46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -4135,7 +4210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -4155,7 +4230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -4175,7 +4250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -4195,7 +4270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -4215,7 +4290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -4235,7 +4310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -4255,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -4275,7 +4350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -4294,8 +4369,11 @@
       <c r="J55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -4315,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -4334,8 +4412,11 @@
       <c r="J57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -4354,8 +4435,11 @@
       <c r="J58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -4374,8 +4458,11 @@
       <c r="J59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -4394,8 +4481,11 @@
       <c r="J60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -4417,8 +4507,11 @@
       <c r="K61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -4438,7 +4531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>73</v>
       </c>
@@ -4458,7 +4551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -4478,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -4498,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -4518,7 +4611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -4538,7 +4631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -4558,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>79</v>
       </c>
@@ -4577,8 +4670,11 @@
       <c r="J69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>80</v>
       </c>
@@ -4597,8 +4693,11 @@
       <c r="J70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -4618,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -4637,8 +4736,11 @@
       <c r="J72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -4657,8 +4759,11 @@
       <c r="J73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -4677,8 +4782,11 @@
       <c r="J74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -4697,8 +4805,11 @@
       <c r="J75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -4717,8 +4828,11 @@
       <c r="J76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -4738,7 +4852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>89</v>
       </c>
@@ -4758,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -4778,7 +4892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -4797,8 +4911,11 @@
       <c r="J80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>92</v>
       </c>
@@ -4817,8 +4934,11 @@
       <c r="J81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -4837,8 +4957,11 @@
       <c r="J82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>94</v>
       </c>
@@ -4857,8 +4980,11 @@
       <c r="J83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -4877,8 +5003,11 @@
       <c r="J84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>96</v>
       </c>
@@ -4897,8 +5026,11 @@
       <c r="J85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>97</v>
       </c>
@@ -4918,7 +5050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -4940,8 +5072,11 @@
       <c r="K87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>99</v>
       </c>
@@ -4963,8 +5098,11 @@
       <c r="K88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>100</v>
       </c>
@@ -4983,8 +5121,11 @@
       <c r="J89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>101</v>
       </c>
@@ -5003,8 +5144,11 @@
       <c r="J90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>102</v>
       </c>
@@ -5023,8 +5167,11 @@
       <c r="J91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>103</v>
       </c>
@@ -5041,7 +5188,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -5061,7 +5208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -5078,7 +5225,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -5095,7 +5242,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -5112,7 +5259,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -5129,7 +5276,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -5146,7 +5293,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -5163,7 +5310,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -5180,7 +5327,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -5197,7 +5344,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -5214,7 +5361,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>116</v>
       </c>
@@ -5231,7 +5378,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -5248,7 +5395,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -5265,7 +5412,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -5282,7 +5429,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>120</v>
       </c>
@@ -5299,7 +5446,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>121</v>
       </c>
@@ -5316,7 +5463,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -5333,7 +5480,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -5350,7 +5497,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>124</v>
       </c>
@@ -5367,7 +5514,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -5384,7 +5531,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>126</v>
       </c>
@@ -5407,7 +5554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -5424,7 +5571,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -5441,7 +5588,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>129</v>
       </c>
@@ -5458,7 +5605,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -5475,7 +5622,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>131</v>
       </c>
@@ -5492,7 +5639,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>132</v>
       </c>
@@ -5509,7 +5656,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>133</v>
       </c>
@@ -5526,7 +5673,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>134</v>
       </c>
@@ -5543,7 +5690,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>135</v>
       </c>
@@ -5560,7 +5707,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>136</v>
       </c>
@@ -5577,7 +5724,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>137</v>
       </c>
@@ -5594,7 +5741,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>138</v>
       </c>
@@ -5611,7 +5758,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>139</v>
       </c>
@@ -5628,7 +5775,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>140</v>
       </c>
@@ -5648,7 +5795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>141</v>
       </c>
@@ -5665,7 +5812,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>142</v>
       </c>
@@ -5682,7 +5829,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>143</v>
       </c>
@@ -5699,7 +5846,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>144</v>
       </c>
@@ -5716,7 +5863,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>145</v>
       </c>
@@ -5733,7 +5880,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>146</v>
       </c>
@@ -5750,7 +5897,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -5767,7 +5914,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>148</v>
       </c>
@@ -5784,7 +5931,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -5801,7 +5948,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>150</v>
       </c>
@@ -5818,7 +5965,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -5835,7 +5982,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>152</v>
       </c>
@@ -5852,7 +5999,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>153</v>
       </c>
@@ -5869,7 +6016,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>154</v>
       </c>
@@ -5886,7 +6033,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>155</v>
       </c>
@@ -5903,7 +6050,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>156</v>
       </c>
@@ -5920,7 +6067,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>157</v>
       </c>
@@ -5937,7 +6084,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>158</v>
       </c>
@@ -5954,7 +6101,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>159</v>
       </c>
@@ -5971,7 +6118,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>160</v>
       </c>
@@ -5988,7 +6135,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>161</v>
       </c>
@@ -6005,7 +6152,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>162</v>
       </c>
@@ -6022,7 +6169,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>163</v>
       </c>
@@ -6039,7 +6186,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>164</v>
       </c>
@@ -6056,7 +6203,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>165</v>
       </c>
@@ -6073,7 +6220,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>166</v>
       </c>
@@ -6090,7 +6237,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>167</v>
       </c>
@@ -6107,7 +6254,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>168</v>
       </c>
@@ -6124,7 +6271,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>169</v>
       </c>
@@ -6141,7 +6288,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>170</v>
       </c>
@@ -6158,7 +6305,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>171</v>
       </c>
@@ -6175,7 +6322,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>172</v>
       </c>
@@ -6192,7 +6339,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>173</v>
       </c>
@@ -6212,7 +6359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>174</v>
       </c>
@@ -6229,7 +6376,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>175</v>
       </c>
@@ -6246,7 +6393,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>176</v>
       </c>
@@ -6263,7 +6410,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>177</v>
       </c>
@@ -6280,7 +6427,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>178</v>
       </c>
@@ -6297,7 +6444,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>179</v>
       </c>
@@ -6314,7 +6461,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>180</v>
       </c>
@@ -6331,7 +6478,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>181</v>
       </c>
@@ -6348,7 +6495,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>182</v>
       </c>
@@ -6365,7 +6512,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>183</v>
       </c>
@@ -6382,7 +6529,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>184</v>
       </c>
@@ -6399,7 +6546,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>185</v>
       </c>
@@ -6416,7 +6563,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>186</v>
       </c>
@@ -6433,7 +6580,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>187</v>
       </c>
@@ -6450,7 +6597,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>188</v>
       </c>
@@ -6467,7 +6614,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>189</v>
       </c>
@@ -6484,7 +6631,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>190</v>
       </c>
@@ -6501,7 +6648,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>191</v>
       </c>
@@ -6518,7 +6665,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>192</v>
       </c>
@@ -6535,7 +6682,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>193</v>
       </c>
@@ -6552,7 +6699,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>194</v>
       </c>
